--- a/medicine/Enfance/Wil_Huygen/Wil_Huygen.xlsx
+++ b/medicine/Enfance/Wil_Huygen/Wil_Huygen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wil Huygen, né le 23 juin 1922 à Amersfoort et mort le 14 janvier 2009 (à 86 ans) à Bilthoven, est un écrivain néerlandais spécialisé en littérature d'enfance et de jeunesse et de fantasy. Il est surtout connu pour ses livres sur les gnomes illustrés par Rien Poortvliet.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Willibrord Joseph Huygen est né à Amersfoort. Médecin, il était aussi peintre à ses heures. Il était marié et père de cinq enfants. 
-Son livre le plus connu est Les Gnomes (Leven en werken van de Kabouter) illustré par Rien Poortvliet, suivi par Le Livre secret des gnomes (De oproep der Kabouters)[1]. L'originalité de ces livres étaient de se présenter comme des ouvrages encyclopédiques sur des êtres imaginaires, reprenant les éléments traditionnels avec humour et poésie.
+Son livre le plus connu est Les Gnomes (Leven en werken van de Kabouter) illustré par Rien Poortvliet, suivi par Le Livre secret des gnomes (De oproep der Kabouters). L'originalité de ces livres étaient de se présenter comme des ouvrages encyclopédiques sur des êtres imaginaires, reprenant les éléments traditionnels avec humour et poésie.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Leven en werken van de Kabouter (1976) (Les Gnomes - Albin Michel jeunesse 1979)
 ??? (Le monde enchanté des lutins (livre POP UP / 3D) Fernand Nathan 1980)
@@ -579,7 +595,9 @@
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses livres ont inspiré les séries David le gnome et La Sagesse des gnomes.
 </t>
